--- a/VM registers.xlsx
+++ b/VM registers.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2500" yWindow="1820" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="262">
   <si>
     <t>Spock</t>
   </si>
@@ -783,6 +783,36 @@
   </si>
   <si>
     <t>Source (Address) Register</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U24</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>S1.15</t>
+  </si>
+  <si>
+    <t>U16.16</t>
+  </si>
+  <si>
+    <t>vrEepromData</t>
+  </si>
+  <si>
+    <t>vrEepromAddress</t>
+  </si>
+  <si>
+    <t>U0.16</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1168,7 @@
     <col min="5" max="5" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
@@ -1151,8 +1181,11 @@
       <c r="E1" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>245</v>
       </c>
@@ -1165,8 +1198,11 @@
       <c r="E2" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>245</v>
       </c>
@@ -1179,8 +1215,11 @@
       <c r="E3" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,12 +1235,15 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="str">
-        <f>CONCATENATE("""", B4, """", ": (", C4, ", 0x", MID(D4, 2, 2), ", '''", E4, "''', 'uint'),")</f>
-        <v>"vrTriggerLogic": (1, 0x05, '''Trigger Logic, one bit per channel (0 =&gt; Low, 1 =&gt; High)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("""", B4, """", ": (0x", MID(D4, 2, 2), ", '", F4, "', """, E4, """),")</f>
+        <v>"vrTriggerLogic": (0x05, 'U8', "Trigger Logic, one bit per channel (0 =&gt; Low, 1 =&gt; High)"),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,12 +1259,15 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G68" si="0">CONCATENATE("""", B5, """", ": (", C5, ", 0x", MID(D5, 2, 2), ", '''", E5, "''', 'uint'),")</f>
-        <v>"vrTriggerMask": (1, 0x06, '''Trigger Mask, one bit per channel (0 =&gt; Don’t Care, 1 =&gt; Active)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H68" si="0">CONCATENATE("""", B5, """", ": (0x", MID(D5, 2, 2), ", '", F5, "', """, E5, """),")</f>
+        <v>"vrTriggerMask": (0x06, 'U8', "Trigger Mask, one bit per channel (0 =&gt; Don’t Care, 1 =&gt; Active)"),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,12 +1283,15 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrSpockOption": (1, 0x07, '''Spock Option Register (see bit definition table for details)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrSpockOption": (0x07, 'U8', "Spock Option Register (see bit definition table for details)"),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,12 +1307,15 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrSampleAddress": (3, 0x08, '''Sample address (write) 24 bit''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrSampleAddress": (0x08, 'U24', "Sample address (write) 24 bit"),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,12 +1331,15 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrSampleCounter": (3, 0x0b, '''Sample address (read) 24 bit''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrSampleCounter": (0x0b, 'U24', "Sample address (read) 24 bit"),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1301,12 +1355,15 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTriggerIntro": (2, 0x32, '''Edge trigger intro filter counter (samples/2)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTriggerIntro": (0x32, 'U24', "Edge trigger intro filter counter (samples/2)"),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,12 +1379,15 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTriggerOutro": (2, 0x34, '''Edge trigger outro filter counter (samples/2)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTriggerOutro": (0x34, 'U16', "Edge trigger outro filter counter (samples/2)"),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,12 +1403,15 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTriggerValue": (2, 0x44, '''Digital (comparator) trigger (signed)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTriggerValue": (0x44, 'S16', "Digital (comparator) trigger (signed)"),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1364,12 +1427,15 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTriggerTime": (4, 0x40, '''Stopwatch trigger time (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTriggerTime": (0x40, 'U32', "Stopwatch trigger time (ticks)"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,12 +1451,15 @@
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrClockTicks": (2, 0x2e, '''Master Sample (clock) period (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrClockTicks": (0x2e, 'U16', "Master Sample (clock) period (ticks)"),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1406,12 +1475,15 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrClockScale": (2, 0x14, '''Clock divide by N (low byte)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrClockScale": (0x14, 'U16', "Clock divide by N (low byte)"),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1427,12 +1499,15 @@
       <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTraceOption": (1, 0x20, '''Trace Mode Option bits''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTraceOption": (0x20, 'U8', "Trace Mode Option bits"),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1448,12 +1523,15 @@
       <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTraceMode": (1, 0x21, '''Trace Mode (see Trace Mode Table)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTraceMode": (0x21, 'U8', "Trace Mode (see Trace Mode Table)"),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1469,12 +1547,15 @@
       <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTraceIntro": (2, 0x26, '''Pre-trigger capture count (samples)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTraceIntro": (0x26, 'U16', "Pre-trigger capture count (samples)"),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,12 +1571,15 @@
       <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTraceDelay": (4, 0x22, '''Delay period (uS)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTraceDelay": (0x22, 'U32', "Delay period (uS)"),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1511,12 +1595,15 @@
       <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTraceOutro": (2, 0x2a, '''Post-trigger capture count (samples)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTraceOutro": (0x2a, 'U16', "Post-trigger capture count (samples)"),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1532,12 +1619,15 @@
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTimeout": (2, 0x2c, '''Auto trace timeout (auto-ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTimeout": (0x2c, 'U16', "Auto trace timeout (auto-ticks)"),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,12 +1643,15 @@
       <c r="E21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrPrelude": (2, 0x3a, '''Buffer prefill value''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrPrelude": (0x3a, 'U16', "Buffer prefill value"),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1574,12 +1667,15 @@
       <c r="E22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrBufferMode": (1, 0x31, '''Buffer mode''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrBufferMode": (0x31, 'U8', "Buffer mode"),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1595,12 +1691,15 @@
       <c r="E23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpMode": (1, 0x1e, '''Dump mode''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpMode": (0x1e, 'U8', "Dump mode"),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1616,12 +1715,15 @@
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpChan": (1, 0x30, '''Dump (buffer) Channel (0..127,128..254,255)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpChan": (0x30, 'U8', "Dump (buffer) Channel (0..127,128..254,255)"),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -1637,12 +1739,15 @@
       <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpSend": (2, 0x18, '''Dump send (samples)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpSend": (0x18, 'U16', "Dump send (samples)"),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -1658,12 +1763,15 @@
       <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpSkip": (2, 0x1a, '''Dump skip (samples)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpSkip": (0x1a, 'U16', "Dump skip (samples)"),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -1679,12 +1787,15 @@
       <c r="E27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpCount": (2, 0x1c, '''Dump size (samples)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpCount": (0x1c, 'U16', "Dump size (samples)"),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1700,12 +1811,15 @@
       <c r="E28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDumpRepeat": (2, 0x16, '''Dump repeat (iterations)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDumpRepeat": (0x16, 'U16', "Dump repeat (iterations)"),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
@@ -1721,12 +1835,15 @@
       <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrStreamIdent": (1, 0x36, '''Stream data token''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrStreamIdent": (0x36, 'U8', "Stream data token"),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1742,12 +1859,15 @@
       <c r="E30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrStampIdent": (1, 0x3c, '''Timestamp token''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrStampIdent": (0x3c, 'U8', "Timestamp token"),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -1763,12 +1883,15 @@
       <c r="E31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrAnalogEnable": (1, 0x37, '''Analog channel enable (bitmap)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrAnalogEnable": (0x37, 'U8', "Analog channel enable (bitmap)"),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -1784,12 +1907,15 @@
       <c r="E32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrDigitalEnable": (1, 0x38, '''Digital channel enable (bitmap)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrDigitalEnable": (0x38, 'U8', "Digital channel enable (bitmap)"),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -1805,12 +1931,15 @@
       <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrSnoopEnable": (1, 0x39, '''Frequency (snoop) channel enable (bitmap)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrSnoopEnable": (0x39, 'U8', "Frequency (snoop) channel enable (bitmap)"),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -1826,12 +1955,15 @@
       <c r="E34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpCmd": (1, 0x46, '''Command Vector''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpCmd": (0x46, 'U8', "Command Vector"),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
@@ -1847,12 +1979,15 @@
       <c r="E35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpMode": (1, 0x47, '''Operation Mode (per command)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpMode": (0x47, 'U8', "Operation Mode (per command)"),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -1868,12 +2003,15 @@
       <c r="E36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpOption": (2, 0x48, '''Command Option (bits fields per command)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpOption": (0x48, 'U16', "Command Option (bits fields per command)"),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -1889,12 +2027,15 @@
       <c r="E37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpSize": (2, 0x4a, '''Operation (unit/block) size''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpSize": (0x4a, 'U16', "Operation (unit/block) size"),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -1910,12 +2051,15 @@
       <c r="E38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpIndex": (2, 0x4c, '''Operation index (eg, P Memory Page)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpIndex": (0x4c, 'U16', "Operation index (eg, P Memory Page)"),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
@@ -1931,12 +2075,15 @@
       <c r="E39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpAddress": (2, 0x4e, '''General purpose address''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpAddress": (0x4e, 'U16', "General purpose address"),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>95</v>
       </c>
@@ -1952,12 +2099,15 @@
       <c r="E40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpClock": (2, 0x50, '''Sample (clock) period (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpClock": (0x50, 'U16', "Sample (clock) period (ticks)"),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>95</v>
       </c>
@@ -1973,12 +2123,15 @@
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpModulo": (2, 0x52, '''Modulo Size (generic)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpModulo": (0x52, 'U16', "Modulo Size (generic)"),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -1994,12 +2147,15 @@
       <c r="E42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpLevel": (2, 0x54, '''Output (analog) attenuation (unsigned)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpLevel": (0x54, 'U0.16', "Output (analog) attenuation (unsigned)"),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -2015,12 +2171,15 @@
       <c r="E43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpOffset": (2, 0x56, '''Output (analog) offset (signed)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpOffset": (0x56, 'S1.15', "Output (analog) offset (signed)"),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -2036,12 +2195,15 @@
       <c r="E44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpMask": (2, 0x58, '''Translate source modulo mask''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpMask": (0x58, 'U16', "Translate source modulo mask"),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -2057,12 +2219,15 @@
       <c r="E45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpRatio": (4, 0x5a, '''Translate command ratio (phase step)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpRatio": (0x5a, 'U16.16', "Translate command ratio (phase step)"),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2078,12 +2243,15 @@
       <c r="E46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpMark": (2, 0x5e, '''Mark count/phase (ticks/step)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpMark": (0x5e, 'U16', "Mark count/phase (ticks/step)"),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2099,12 +2267,15 @@
       <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpSpace": (2, 0x60, '''Space count/phase (ticks/step)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpSpace": (0x60, 'U16', "Space count/phase (ticks/step)"),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -2120,12 +2291,15 @@
       <c r="E48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpRise": (2, 0x82, '''Rising edge clock (channel 1) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpRise": (0x82, 'U16', "Rising edge clock (channel 1) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -2141,12 +2315,15 @@
       <c r="E49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpFall": (2, 0x84, '''Falling edge clock (channel 1) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpFall": (0x84, 'U16', "Falling edge clock (channel 1) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -2162,12 +2339,15 @@
       <c r="E50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpControl": (1, 0x86, '''Clock Control Register (channel 1)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpControl": (0x86, 'U8', "Clock Control Register (channel 1)"),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2183,12 +2363,15 @@
       <c r="E51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpRise2": (2, 0x88, '''Rising edge clock (channel 2) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpRise2": (0x88, 'U16', "Rising edge clock (channel 2) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
@@ -2204,12 +2387,15 @@
       <c r="E52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpFall2": (2, 0x8a, '''Falling edge clock (channel 2) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpFall2": (0x8a, 'U16', "Falling edge clock (channel 2) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2225,12 +2411,15 @@
       <c r="E53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpControl2": (1, 0x8c, '''Clock Control Register (channel 2)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpControl2": (0x8c, 'U8', "Clock Control Register (channel 2)"),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2246,12 +2435,15 @@
       <c r="E54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpRise3": (2, 0x8e, '''Rising edge clock (channel 3) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpRise3": (0x8e, 'U16', "Rising edge clock (channel 3) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -2267,12 +2459,15 @@
       <c r="E55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpFall3": (2, 0x90, '''Falling edge clock (channel 3) phase (ticks)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpFall3": (0x90, 'U16', "Falling edge clock (channel 3) phase (ticks)"),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
@@ -2288,15 +2483,21 @@
       <c r="E56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>"vpControl3": (1, 0x92, '''Clock Control Register (channel 3)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>"vpControl3": (0x92, 'U8', "Clock Control Register (channel 3)"),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -2306,15 +2507,21 @@
       <c r="E57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x10, '''EE Data Register''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrEepromData": (0x10, 'U8', "EE Data Register"),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
@@ -2324,12 +2531,15 @@
       <c r="E58" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x11, '''EE Address Register''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrEepromAddress": (0x11, 'U8', "EE Address Register"),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
@@ -2342,12 +2552,15 @@
       <c r="E59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x3d, '''start cell time''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>"": (0x3d, 'U8', "start cell time"),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>170</v>
       </c>
@@ -2360,12 +2573,15 @@
       <c r="E60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x3e, '''bit cell time''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>"": (0x3e, 'U8', "bit cell time"),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>170</v>
       </c>
@@ -2378,12 +2594,15 @@
       <c r="E61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x3f, '''baud rate''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>"": (0x3f, 'U8', "baud rate"),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>170</v>
       </c>
@@ -2396,12 +2615,15 @@
       <c r="E62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x12, '''POD Tx Byte''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>"": (0x12, 'U8', "POD Tx Byte"),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -2414,12 +2636,15 @@
       <c r="E63" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>"": (1, 0x13, '''POD Rx Byte''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>"": (0x13, 'U8', "POD Rx Byte"),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>181</v>
       </c>
@@ -2435,12 +2660,15 @@
       <c r="E64" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrConverterLo": (2, 0x64, '''VRB ADC Range Bottom (D Trace Mode)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrConverterLo": (0x64, 'U16', "VRB ADC Range Bottom (D Trace Mode)"),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
@@ -2456,12 +2684,15 @@
       <c r="E65" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrConverterHi": (2, 0x66, '''VRB ADC Range Top (D Trace Mode)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrConverterHi": (0x66, 'U16', "VRB ADC Range Top (D Trace Mode)"),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>181</v>
       </c>
@@ -2477,12 +2708,15 @@
       <c r="E66" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrTriggerLevel": (2, 0x68, '''Trigger Level (comparator, unsigned)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrTriggerLevel": (0x68, 'U16', "Trigger Level (comparator, unsigned)"),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
@@ -2498,12 +2732,15 @@
       <c r="E67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrLogicControl": (1, 0x74, '''Logic Control''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrLogicControl": (0x74, 'U8', "Logic Control"),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>181</v>
       </c>
@@ -2519,12 +2756,15 @@
       <c r="E68" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" si="0"/>
-        <v>"vrRest": (2, 0x78, '''DAC (rest) level''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="0"/>
+        <v>"vrRest": (0x78, 'U16', "DAC (rest) level"),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>181</v>
       </c>
@@ -2540,12 +2780,15 @@
       <c r="E69" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" ref="G69:G84" si="1">CONCATENATE("""", B69, """", ": (", C69, ", 0x", MID(D69, 2, 2), ", '''", E69, "''', 'uint'),")</f>
-        <v>"vrKitchenSinkA": (1, 0x7b, '''Kitchen Sink Register A''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ref="H69:H84" si="1">CONCATENATE("""", B69, """", ": (0x", MID(D69, 2, 2), ", '", F69, "', """, E69, """),")</f>
+        <v>"vrKitchenSinkA": (0x7b, 'U8', "Kitchen Sink Register A"),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>181</v>
       </c>
@@ -2561,12 +2804,15 @@
       <c r="E70" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G70" t="str">
+      <c r="F70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>"vrKitchenSinkB": (1, 0x7c, '''Kitchen Sink Register B''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrKitchenSinkB": (0x7c, 'U8', "Kitchen Sink Register B"),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>181</v>
       </c>
@@ -2582,12 +2828,15 @@
       <c r="E71" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G71" t="str">
+      <c r="F71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap0": (1, 0x94, '''Peripheral Pin Select Channel 0''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap0": (0x94, 'U8', "Peripheral Pin Select Channel 0"),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>181</v>
       </c>
@@ -2603,12 +2852,15 @@
       <c r="E72" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G72" t="str">
+      <c r="F72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap1": (1, 0x95, '''Peripheral Pin Select Channel 1''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap1": (0x95, 'U8', "Peripheral Pin Select Channel 1"),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>181</v>
       </c>
@@ -2624,12 +2876,15 @@
       <c r="E73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G73" t="str">
+      <c r="F73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap2": (1, 0x96, '''Peripheral Pin Select Channel 2''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap2": (0x96, 'U8', "Peripheral Pin Select Channel 2"),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
@@ -2645,12 +2900,15 @@
       <c r="E74" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G74" t="str">
+      <c r="F74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap3": (1, 0x97, '''Peripheral Pin Select Channel 3''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap3": (0x97, 'U8', "Peripheral Pin Select Channel 3"),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>181</v>
       </c>
@@ -2666,12 +2924,15 @@
       <c r="E75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G75" t="str">
+      <c r="F75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap4": (1, 0x98, '''Peripheral Pin Select Channel 4''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap4": (0x98, 'U8', "Peripheral Pin Select Channel 4"),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -2687,12 +2948,15 @@
       <c r="E76" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G76" t="str">
+      <c r="F76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap5": (1, 0x99, '''Peripheral Pin Select Channel 5''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap5": (0x99, 'U8', "Peripheral Pin Select Channel 5"),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>181</v>
       </c>
@@ -2708,12 +2972,15 @@
       <c r="E77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G77" t="str">
+      <c r="F77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap6": (1, 0x9a, '''Peripheral Pin Select Channel 6''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap6": (0x9a, 'U8', "Peripheral Pin Select Channel 6"),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>181</v>
       </c>
@@ -2729,12 +2996,15 @@
       <c r="E78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G78" t="str">
+      <c r="F78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap7": (1, 0x9b, '''Peripheral Pin Select Channel 7''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vpMap7": (0x9b, 'U8', "Peripheral Pin Select Channel 7"),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>165</v>
       </c>
@@ -2750,12 +3020,15 @@
       <c r="E79" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G79" t="str">
+      <c r="F79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>"vrMasterClockN": (1, 0xf7, '''PLL prescale (DIV N)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrMasterClockN": (0xf7, 'U8', "PLL prescale (DIV N)"),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -2771,12 +3044,15 @@
       <c r="E80" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G80" t="str">
+      <c r="F80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>"vrMasterClockM": (2, 0xf8, '''PLL multiplier (MUL M)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrMasterClockM": (0xf8, 'U16', "PLL multiplier (MUL M)"),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -2792,12 +3068,15 @@
       <c r="E81" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G81" t="str">
+      <c r="F81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelRED": (1, 0xfa, '''Red LED Intensity (VM10 only)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrLedLevelRED": (0xfa, 'U8', "Red LED Intensity (VM10 only)"),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -2813,12 +3092,15 @@
       <c r="E82" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G82" t="str">
+      <c r="F82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelGRN": (1, 0xfb, '''Green LED Intensity (VM10 only)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrLedLevelGRN": (0xfb, 'U8', "Green LED Intensity (VM10 only)"),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -2834,12 +3116,15 @@
       <c r="E83" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G83" t="str">
+      <c r="F83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelYEL": (1, 0xfc, '''Yellow LED Intensity (VM10 only)''', 'uint'),</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+        <v>"vrLedLevelYEL": (0xfc, 'U8', "Yellow LED Intensity (VM10 only)"),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
@@ -2855,9 +3140,12 @@
       <c r="E84" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G84" t="str">
+      <c r="F84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>"vcBaudHost": (2, 0xfe, '''baud rate (host side)''', 'uint'),</v>
+        <v>"vcBaudHost": (0xfe, 'U16', "baud rate (host side)"),</v>
       </c>
     </row>
   </sheetData>

--- a/VM registers.xlsx
+++ b/VM registers.xlsx
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,11 +1356,11 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerIntro": (0x32, 'U24', "Edge trigger intro filter counter (samples/2)"),</v>
+        <v>"vrTriggerIntro": (0x32, 'U16', "Edge trigger intro filter counter (samples/2)"),</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.25">

--- a/VM registers.xlsx
+++ b/VM registers.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Projects/bitscope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Projects/scopething/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06EF759-56C8-EA45-B618-872BA4467147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1820" windowWidth="28720" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="2580" windowWidth="28720" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -818,7 +827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -885,6 +894,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1152,11 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,8 +1251,8 @@
         <v>252</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("""", B4, """", ": (0x", MID(D4, 2, 2), ", '", F4, "', """, E4, """),")</f>
-        <v>"vrTriggerLogic": (0x05, 'U8', "Trigger Logic, one bit per channel (0 =&gt; Low, 1 =&gt; High)"),</v>
+        <f>CONCATENATE("""", MID(B4, 3, 100), """", ": Register(0x", MID(D4, 2, 2), ", '", F4, "', """, E4, """),")</f>
+        <v>"TriggerLogic": Register(0x05, 'U8', "Trigger Logic, one bit per channel (0 =&gt; Low, 1 =&gt; High)"),</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1263,8 +1275,8 @@
         <v>252</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H68" si="0">CONCATENATE("""", B5, """", ": (0x", MID(D5, 2, 2), ", '", F5, "', """, E5, """),")</f>
-        <v>"vrTriggerMask": (0x06, 'U8', "Trigger Mask, one bit per channel (0 =&gt; Don’t Care, 1 =&gt; Active)"),</v>
+        <f t="shared" ref="H5:H68" si="0">CONCATENATE("""", MID(B5, 3, 100), """", ": Register(0x", MID(D5, 2, 2), ", '", F5, "', """, E5, """),")</f>
+        <v>"TriggerMask": Register(0x06, 'U8', "Trigger Mask, one bit per channel (0 =&gt; Don’t Care, 1 =&gt; Active)"),</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1288,7 +1300,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>"vrSpockOption": (0x07, 'U8', "Spock Option Register (see bit definition table for details)"),</v>
+        <v>"SpockOption": Register(0x07, 'U8', "Spock Option Register (see bit definition table for details)"),</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1312,7 +1324,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>"vrSampleAddress": (0x08, 'U24', "Sample address (write) 24 bit"),</v>
+        <v>"SampleAddress": Register(0x08, 'U24', "Sample address (write) 24 bit"),</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1336,7 +1348,7 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>"vrSampleCounter": (0x0b, 'U24', "Sample address (read) 24 bit"),</v>
+        <v>"SampleCounter": Register(0x0b, 'U24', "Sample address (read) 24 bit"),</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1360,7 +1372,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerIntro": (0x32, 'U16', "Edge trigger intro filter counter (samples/2)"),</v>
+        <v>"TriggerIntro": Register(0x32, 'U16', "Edge trigger intro filter counter (samples/2)"),</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1384,7 +1396,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerOutro": (0x34, 'U16', "Edge trigger outro filter counter (samples/2)"),</v>
+        <v>"TriggerOutro": Register(0x34, 'U16', "Edge trigger outro filter counter (samples/2)"),</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1408,7 +1420,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerValue": (0x44, 'S16', "Digital (comparator) trigger (signed)"),</v>
+        <v>"TriggerValue": Register(0x44, 'S16', "Digital (comparator) trigger (signed)"),</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1432,7 +1444,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerTime": (0x40, 'U32', "Stopwatch trigger time (ticks)"),</v>
+        <v>"TriggerTime": Register(0x40, 'U32', "Stopwatch trigger time (ticks)"),</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1456,7 +1468,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>"vrClockTicks": (0x2e, 'U16', "Master Sample (clock) period (ticks)"),</v>
+        <v>"ClockTicks": Register(0x2e, 'U16', "Master Sample (clock) period (ticks)"),</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1480,7 +1492,7 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>"vrClockScale": (0x14, 'U16', "Clock divide by N (low byte)"),</v>
+        <v>"ClockScale": Register(0x14, 'U16', "Clock divide by N (low byte)"),</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1504,7 +1516,7 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTraceOption": (0x20, 'U8', "Trace Mode Option bits"),</v>
+        <v>"TraceOption": Register(0x20, 'U8', "Trace Mode Option bits"),</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1528,7 +1540,7 @@
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTraceMode": (0x21, 'U8', "Trace Mode (see Trace Mode Table)"),</v>
+        <v>"TraceMode": Register(0x21, 'U8', "Trace Mode (see Trace Mode Table)"),</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1552,7 +1564,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTraceIntro": (0x26, 'U16', "Pre-trigger capture count (samples)"),</v>
+        <v>"TraceIntro": Register(0x26, 'U16', "Pre-trigger capture count (samples)"),</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1576,7 +1588,7 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTraceDelay": (0x22, 'U32', "Delay period (uS)"),</v>
+        <v>"TraceDelay": Register(0x22, 'U32', "Delay period (uS)"),</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1600,7 +1612,7 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTraceOutro": (0x2a, 'U16', "Post-trigger capture count (samples)"),</v>
+        <v>"TraceOutro": Register(0x2a, 'U16', "Post-trigger capture count (samples)"),</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1624,7 +1636,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTimeout": (0x2c, 'U16', "Auto trace timeout (auto-ticks)"),</v>
+        <v>"Timeout": Register(0x2c, 'U16', "Auto trace timeout (auto-ticks)"),</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1648,7 +1660,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>"vrPrelude": (0x3a, 'U16', "Buffer prefill value"),</v>
+        <v>"Prelude": Register(0x3a, 'U16', "Buffer prefill value"),</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1672,7 +1684,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>"vrBufferMode": (0x31, 'U8', "Buffer mode"),</v>
+        <v>"BufferMode": Register(0x31, 'U8', "Buffer mode"),</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1696,7 +1708,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpMode": (0x1e, 'U8', "Dump mode"),</v>
+        <v>"DumpMode": Register(0x1e, 'U8', "Dump mode"),</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1720,7 +1732,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpChan": (0x30, 'U8', "Dump (buffer) Channel (0..127,128..254,255)"),</v>
+        <v>"DumpChan": Register(0x30, 'U8', "Dump (buffer) Channel (0..127,128..254,255)"),</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1744,7 +1756,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpSend": (0x18, 'U16', "Dump send (samples)"),</v>
+        <v>"DumpSend": Register(0x18, 'U16', "Dump send (samples)"),</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1768,7 +1780,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpSkip": (0x1a, 'U16', "Dump skip (samples)"),</v>
+        <v>"DumpSkip": Register(0x1a, 'U16', "Dump skip (samples)"),</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1792,7 +1804,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpCount": (0x1c, 'U16', "Dump size (samples)"),</v>
+        <v>"DumpCount": Register(0x1c, 'U16', "Dump size (samples)"),</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1816,7 +1828,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDumpRepeat": (0x16, 'U16', "Dump repeat (iterations)"),</v>
+        <v>"DumpRepeat": Register(0x16, 'U16', "Dump repeat (iterations)"),</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1840,7 +1852,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>"vrStreamIdent": (0x36, 'U8', "Stream data token"),</v>
+        <v>"StreamIdent": Register(0x36, 'U8', "Stream data token"),</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1864,7 +1876,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>"vrStampIdent": (0x3c, 'U8', "Timestamp token"),</v>
+        <v>"StampIdent": Register(0x3c, 'U8', "Timestamp token"),</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1888,7 +1900,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>"vrAnalogEnable": (0x37, 'U8', "Analog channel enable (bitmap)"),</v>
+        <v>"AnalogEnable": Register(0x37, 'U8', "Analog channel enable (bitmap)"),</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1912,7 +1924,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>"vrDigitalEnable": (0x38, 'U8', "Digital channel enable (bitmap)"),</v>
+        <v>"DigitalEnable": Register(0x38, 'U8', "Digital channel enable (bitmap)"),</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1936,7 +1948,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>"vrSnoopEnable": (0x39, 'U8', "Frequency (snoop) channel enable (bitmap)"),</v>
+        <v>"SnoopEnable": Register(0x39, 'U8', "Frequency (snoop) channel enable (bitmap)"),</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1960,7 +1972,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>"vpCmd": (0x46, 'U8', "Command Vector"),</v>
+        <v>"Cmd": Register(0x46, 'U8', "Command Vector"),</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -1984,7 +1996,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>"vpMode": (0x47, 'U8', "Operation Mode (per command)"),</v>
+        <v>"Mode": Register(0x47, 'U8', "Operation Mode (per command)"),</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2008,7 +2020,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>"vpOption": (0x48, 'U16', "Command Option (bits fields per command)"),</v>
+        <v>"Option": Register(0x48, 'U16', "Command Option (bits fields per command)"),</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2032,7 +2044,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>"vpSize": (0x4a, 'U16', "Operation (unit/block) size"),</v>
+        <v>"Size": Register(0x4a, 'U16', "Operation (unit/block) size"),</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2056,7 +2068,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>"vpIndex": (0x4c, 'U16', "Operation index (eg, P Memory Page)"),</v>
+        <v>"Index": Register(0x4c, 'U16', "Operation index (eg, P Memory Page)"),</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2080,7 +2092,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>"vpAddress": (0x4e, 'U16', "General purpose address"),</v>
+        <v>"Address": Register(0x4e, 'U16', "General purpose address"),</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2104,7 +2116,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>"vpClock": (0x50, 'U16', "Sample (clock) period (ticks)"),</v>
+        <v>"Clock": Register(0x50, 'U16', "Sample (clock) period (ticks)"),</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2128,7 +2140,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>"vpModulo": (0x52, 'U16', "Modulo Size (generic)"),</v>
+        <v>"Modulo": Register(0x52, 'U16', "Modulo Size (generic)"),</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2152,7 +2164,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>"vpLevel": (0x54, 'U0.16', "Output (analog) attenuation (unsigned)"),</v>
+        <v>"Level": Register(0x54, 'U0.16', "Output (analog) attenuation (unsigned)"),</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2176,7 +2188,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>"vpOffset": (0x56, 'S1.15', "Output (analog) offset (signed)"),</v>
+        <v>"Offset": Register(0x56, 'S1.15', "Output (analog) offset (signed)"),</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2200,7 +2212,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>"vpMask": (0x58, 'U16', "Translate source modulo mask"),</v>
+        <v>"Mask": Register(0x58, 'U16', "Translate source modulo mask"),</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2224,7 +2236,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>"vpRatio": (0x5a, 'U16.16', "Translate command ratio (phase step)"),</v>
+        <v>"Ratio": Register(0x5a, 'U16.16', "Translate command ratio (phase step)"),</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2248,7 +2260,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>"vpMark": (0x5e, 'U16', "Mark count/phase (ticks/step)"),</v>
+        <v>"Mark": Register(0x5e, 'U16', "Mark count/phase (ticks/step)"),</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2272,7 +2284,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>"vpSpace": (0x60, 'U16', "Space count/phase (ticks/step)"),</v>
+        <v>"Space": Register(0x60, 'U16', "Space count/phase (ticks/step)"),</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2296,7 +2308,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>"vpRise": (0x82, 'U16', "Rising edge clock (channel 1) phase (ticks)"),</v>
+        <v>"Rise": Register(0x82, 'U16', "Rising edge clock (channel 1) phase (ticks)"),</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2320,7 +2332,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>"vpFall": (0x84, 'U16', "Falling edge clock (channel 1) phase (ticks)"),</v>
+        <v>"Fall": Register(0x84, 'U16', "Falling edge clock (channel 1) phase (ticks)"),</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2344,7 +2356,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>"vpControl": (0x86, 'U8', "Clock Control Register (channel 1)"),</v>
+        <v>"Control": Register(0x86, 'U8', "Clock Control Register (channel 1)"),</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2368,7 +2380,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>"vpRise2": (0x88, 'U16', "Rising edge clock (channel 2) phase (ticks)"),</v>
+        <v>"Rise2": Register(0x88, 'U16', "Rising edge clock (channel 2) phase (ticks)"),</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2392,7 +2404,7 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>"vpFall2": (0x8a, 'U16', "Falling edge clock (channel 2) phase (ticks)"),</v>
+        <v>"Fall2": Register(0x8a, 'U16', "Falling edge clock (channel 2) phase (ticks)"),</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2416,7 +2428,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>"vpControl2": (0x8c, 'U8', "Clock Control Register (channel 2)"),</v>
+        <v>"Control2": Register(0x8c, 'U8', "Clock Control Register (channel 2)"),</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2440,7 +2452,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>"vpRise3": (0x8e, 'U16', "Rising edge clock (channel 3) phase (ticks)"),</v>
+        <v>"Rise3": Register(0x8e, 'U16', "Rising edge clock (channel 3) phase (ticks)"),</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2464,7 +2476,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>"vpFall3": (0x90, 'U16', "Falling edge clock (channel 3) phase (ticks)"),</v>
+        <v>"Fall3": Register(0x90, 'U16', "Falling edge clock (channel 3) phase (ticks)"),</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2488,7 +2500,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>"vpControl3": (0x92, 'U8', "Clock Control Register (channel 3)"),</v>
+        <v>"Control3": Register(0x92, 'U8', "Clock Control Register (channel 3)"),</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2512,7 +2524,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>"vrEepromData": (0x10, 'U8', "EE Data Register"),</v>
+        <v>"EepromData": Register(0x10, 'U8', "EE Data Register"),</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2536,7 +2548,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>"vrEepromAddress": (0x11, 'U8', "EE Address Register"),</v>
+        <v>"EepromAddress": Register(0x11, 'U8', "EE Address Register"),</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2557,7 +2569,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>"": (0x3d, 'U8', "start cell time"),</v>
+        <v>"": Register(0x3d, 'U8', "start cell time"),</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2578,7 +2590,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>"": (0x3e, 'U8', "bit cell time"),</v>
+        <v>"": Register(0x3e, 'U8', "bit cell time"),</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2599,7 +2611,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>"": (0x3f, 'U8', "baud rate"),</v>
+        <v>"": Register(0x3f, 'U8', "baud rate"),</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2620,7 +2632,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>"": (0x12, 'U8', "POD Tx Byte"),</v>
+        <v>"": Register(0x12, 'U8', "POD Tx Byte"),</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2641,7 +2653,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>"": (0x13, 'U8', "POD Rx Byte"),</v>
+        <v>"": Register(0x13, 'U8', "POD Rx Byte"),</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2665,7 +2677,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>"vrConverterLo": (0x64, 'U16', "VRB ADC Range Bottom (D Trace Mode)"),</v>
+        <v>"ConverterLo": Register(0x64, 'U16', "VRB ADC Range Bottom (D Trace Mode)"),</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2689,7 +2701,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>"vrConverterHi": (0x66, 'U16', "VRB ADC Range Top (D Trace Mode)"),</v>
+        <v>"ConverterHi": Register(0x66, 'U16', "VRB ADC Range Top (D Trace Mode)"),</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2713,7 +2725,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>"vrTriggerLevel": (0x68, 'U16', "Trigger Level (comparator, unsigned)"),</v>
+        <v>"TriggerLevel": Register(0x68, 'U16', "Trigger Level (comparator, unsigned)"),</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2737,7 +2749,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
-        <v>"vrLogicControl": (0x74, 'U8', "Logic Control"),</v>
+        <v>"LogicControl": Register(0x74, 'U8', "Logic Control"),</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2761,7 +2773,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="0"/>
-        <v>"vrRest": (0x78, 'U16', "DAC (rest) level"),</v>
+        <v>"Rest": Register(0x78, 'U16', "DAC (rest) level"),</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2784,8 +2796,8 @@
         <v>252</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ref="H69:H84" si="1">CONCATENATE("""", B69, """", ": (0x", MID(D69, 2, 2), ", '", F69, "', """, E69, """),")</f>
-        <v>"vrKitchenSinkA": (0x7b, 'U8', "Kitchen Sink Register A"),</v>
+        <f t="shared" ref="H69:H84" si="1">CONCATENATE("""", MID(B69, 3, 100), """", ": Register(0x", MID(D69, 2, 2), ", '", F69, "', """, E69, """),")</f>
+        <v>"KitchenSinkA": Register(0x7b, 'U8', "Kitchen Sink Register A"),</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2809,7 +2821,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>"vrKitchenSinkB": (0x7c, 'U8', "Kitchen Sink Register B"),</v>
+        <v>"KitchenSinkB": Register(0x7c, 'U8', "Kitchen Sink Register B"),</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2833,7 +2845,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap0": (0x94, 'U8', "Peripheral Pin Select Channel 0"),</v>
+        <v>"Map0": Register(0x94, 'U8', "Peripheral Pin Select Channel 0"),</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2857,7 +2869,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap1": (0x95, 'U8', "Peripheral Pin Select Channel 1"),</v>
+        <v>"Map1": Register(0x95, 'U8', "Peripheral Pin Select Channel 1"),</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2881,7 +2893,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap2": (0x96, 'U8', "Peripheral Pin Select Channel 2"),</v>
+        <v>"Map2": Register(0x96, 'U8', "Peripheral Pin Select Channel 2"),</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2905,7 +2917,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap3": (0x97, 'U8', "Peripheral Pin Select Channel 3"),</v>
+        <v>"Map3": Register(0x97, 'U8', "Peripheral Pin Select Channel 3"),</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2929,7 +2941,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap4": (0x98, 'U8', "Peripheral Pin Select Channel 4"),</v>
+        <v>"Map4": Register(0x98, 'U8', "Peripheral Pin Select Channel 4"),</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2953,7 +2965,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap5": (0x99, 'U8', "Peripheral Pin Select Channel 5"),</v>
+        <v>"Map5": Register(0x99, 'U8', "Peripheral Pin Select Channel 5"),</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2977,7 +2989,7 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap6": (0x9a, 'U8', "Peripheral Pin Select Channel 6"),</v>
+        <v>"Map6": Register(0x9a, 'U8', "Peripheral Pin Select Channel 6"),</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3001,7 +3013,7 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>"vpMap7": (0x9b, 'U8', "Peripheral Pin Select Channel 7"),</v>
+        <v>"Map7": Register(0x9b, 'U8', "Peripheral Pin Select Channel 7"),</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3025,7 +3037,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>"vrMasterClockN": (0xf7, 'U8', "PLL prescale (DIV N)"),</v>
+        <v>"MasterClockN": Register(0xf7, 'U8', "PLL prescale (DIV N)"),</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3049,7 +3061,7 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>"vrMasterClockM": (0xf8, 'U16', "PLL multiplier (MUL M)"),</v>
+        <v>"MasterClockM": Register(0xf8, 'U16', "PLL multiplier (MUL M)"),</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3073,7 +3085,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelRED": (0xfa, 'U8', "Red LED Intensity (VM10 only)"),</v>
+        <v>"LedLevelRED": Register(0xfa, 'U8', "Red LED Intensity (VM10 only)"),</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3097,7 +3109,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelGRN": (0xfb, 'U8', "Green LED Intensity (VM10 only)"),</v>
+        <v>"LedLevelGRN": Register(0xfb, 'U8', "Green LED Intensity (VM10 only)"),</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3121,7 +3133,7 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>"vrLedLevelYEL": (0xfc, 'U8', "Yellow LED Intensity (VM10 only)"),</v>
+        <v>"LedLevelYEL": Register(0xfc, 'U8', "Yellow LED Intensity (VM10 only)"),</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -3145,16 +3157,16 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>"vcBaudHost": (0xfe, 'U16', "baud rate (host side)"),</v>
+        <v>"BaudHost": Register(0xfe, 'U16', "baud rate (host side)"),</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="bookmark=id.9hyb2b671s0j"/>
-    <hyperlink ref="E16" r:id="rId2" location="bookmark=id.piosvyzdr578"/>
-    <hyperlink ref="B64" r:id="rId3" location="bookmark=id.825ktwifusbr"/>
-    <hyperlink ref="B65" r:id="rId4" location="bookmark=id.825ktwifusbr"/>
-    <hyperlink ref="B67" r:id="rId5" location="bookmark=id.y3xpg6mt23an"/>
+    <hyperlink ref="B6" r:id="rId1" location="bookmark=id.9hyb2b671s0j" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" location="bookmark=id.piosvyzdr578" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B64" r:id="rId3" location="bookmark=id.825ktwifusbr" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B65" r:id="rId4" location="bookmark=id.825ktwifusbr" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B67" r:id="rId5" location="bookmark=id.y3xpg6mt23an" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
